--- a/5 - Game Design/Doc Design_Lógica Itens.xlsx
+++ b/5 - Game Design/Doc Design_Lógica Itens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="40" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="40" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/5 - Game Design/Doc Design_Lógica Itens.xlsx
+++ b/5 - Game Design/Doc Design_Lógica Itens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="40" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5120" yWindow="1160" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>Nível 1</t>
   </si>
@@ -343,6 +343,36 @@
   </si>
   <si>
     <t>onça 2</t>
+  </si>
+  <si>
+    <t>MG 1 = N1</t>
+  </si>
+  <si>
+    <t>MG 2 = N1</t>
+  </si>
+  <si>
+    <t>MG 3 = N1, N2</t>
+  </si>
+  <si>
+    <t>MG 4 = N2</t>
+  </si>
+  <si>
+    <t>MG 5 = N1, N2, N3</t>
+  </si>
+  <si>
+    <t>MG 6 = N2, N3</t>
+  </si>
+  <si>
+    <t>MG 7 = N2, N3, N4</t>
+  </si>
+  <si>
+    <t>MG 8 = N3, N4, N5</t>
+  </si>
+  <si>
+    <t>MG 9 = N4, N5</t>
+  </si>
+  <si>
+    <t>MG 10 = N5</t>
   </si>
 </sst>
 </file>
@@ -756,7 +786,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1053,117 +1083,151 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:21">
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="10" spans="1:21">
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
       <c r="P10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:21">
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
       <c r="P11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:21">
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
       <c r="P12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:21">
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
       <c r="P13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:21">
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:21">
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
       <c r="P15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:21">
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
       <c r="P16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="16:16">
+    <row r="17" spans="8:16">
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
       <c r="P17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="16:16">
+    <row r="18" spans="8:16">
       <c r="P18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="16:16">
+    <row r="19" spans="8:16">
       <c r="P19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="16:16">
+    <row r="20" spans="8:16">
       <c r="P20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="16:16">
+    <row r="21" spans="8:16">
       <c r="P21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="16:16">
+    <row r="22" spans="8:16">
       <c r="P22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="16:16">
+    <row r="23" spans="8:16">
       <c r="P23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="16:16">
+    <row r="24" spans="8:16">
       <c r="P24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="16:16">
+    <row r="25" spans="8:16">
       <c r="P25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="16:16">
+    <row r="26" spans="8:16">
       <c r="P26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="16:16">
+    <row r="27" spans="8:16">
       <c r="P27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="16:16">
+    <row r="28" spans="8:16">
       <c r="P28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="16:16">
+    <row r="29" spans="8:16">
       <c r="P29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="16:16">
+    <row r="30" spans="8:16">
       <c r="P30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="16:16">
+    <row r="31" spans="8:16">
       <c r="P31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="16:16">
+    <row r="32" spans="8:16">
       <c r="P32" t="s">
         <v>100</v>
       </c>

--- a/5 - Game Design/Doc Design_Lógica Itens.xlsx
+++ b/5 - Game Design/Doc Design_Lógica Itens.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>Nível 1</t>
   </si>
@@ -279,18 +279,12 @@
     <t>mato 2</t>
   </si>
   <si>
-    <t>giras 1</t>
-  </si>
-  <si>
     <t>madeiras 2</t>
   </si>
   <si>
     <t>p. buri 1</t>
   </si>
   <si>
-    <t>guar 1</t>
-  </si>
-  <si>
     <t>semen 3</t>
   </si>
   <si>
@@ -315,15 +309,9 @@
     <t>Moringa</t>
   </si>
   <si>
-    <t>2 moringa</t>
-  </si>
-  <si>
     <t>MORINGA</t>
   </si>
   <si>
-    <t>Moring 1</t>
-  </si>
-  <si>
     <t>2 pepita</t>
   </si>
   <si>
@@ -373,16 +361,50 @@
   </si>
   <si>
     <t>MG 10 = N5</t>
+  </si>
+  <si>
+    <t>2 v. indígena</t>
+  </si>
+  <si>
+    <t>1 moringa</t>
+  </si>
+  <si>
+    <t>Moring 2</t>
+  </si>
+  <si>
+    <t>giras 2</t>
+  </si>
+  <si>
+    <t>guar 2</t>
+  </si>
+  <si>
+    <t>v. indig 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -441,8 +463,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -453,7 +479,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -854,22 +884,22 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>72</v>
-      </c>
-      <c r="U1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -916,18 +946,21 @@
         <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
         <v>62</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -963,7 +996,7 @@
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
         <v>51</v>
@@ -975,18 +1008,21 @@
         <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
         <v>63</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>67</v>
       </c>
-      <c r="S3" t="s">
-        <v>98</v>
-      </c>
       <c r="T3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1028,7 +1064,7 @@
         <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -1037,15 +1073,18 @@
         <v>60</v>
       </c>
       <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
         <v>64</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>68</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>71</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1063,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1079,23 +1118,23 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="H8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="H9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="H10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>79</v>
@@ -1103,7 +1142,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="H11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
         <v>80</v>
@@ -1111,7 +1150,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="H12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P12" t="s">
         <v>81</v>
@@ -1119,7 +1158,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="H13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s">
         <v>82</v>
@@ -1127,7 +1166,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="H14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
@@ -1135,7 +1174,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="H15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s">
         <v>84</v>
@@ -1143,15 +1182,15 @@
     </row>
     <row r="16" spans="1:21">
       <c r="H16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="8:16">
       <c r="H17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P17" t="s">
         <v>85</v>
@@ -1159,12 +1198,12 @@
     </row>
     <row r="18" spans="8:16">
       <c r="P18" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="8:16">
       <c r="P19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="8:16">
@@ -1174,66 +1213,72 @@
     </row>
     <row r="21" spans="8:16">
       <c r="P21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="8:16">
       <c r="P22" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="8:16">
       <c r="P23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="8:16">
       <c r="P24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="8:16">
       <c r="P25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="8:16">
       <c r="P26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="8:16">
       <c r="P27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="8:16">
       <c r="P28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="8:16">
       <c r="P29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="8:16">
       <c r="P30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="8:16">
       <c r="P31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="8:16">
       <c r="P32" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16">
+      <c r="P33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/5 - Game Design/Doc Design_Lógica Itens.xlsx
+++ b/5 - Game Design/Doc Design_Lógica Itens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1160" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="1100" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>Nível 1</t>
   </si>
@@ -282,9 +282,6 @@
     <t>madeiras 2</t>
   </si>
   <si>
-    <t>p. buri 1</t>
-  </si>
-  <si>
     <t>semen 3</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>3 c de vespa</t>
   </si>
   <si>
-    <t>vespa 1</t>
-  </si>
-  <si>
     <t>2 d. piranha</t>
   </si>
   <si>
@@ -379,6 +373,27 @@
   </si>
   <si>
     <t>v. indig 1</t>
+  </si>
+  <si>
+    <t>Luva Aragon</t>
+  </si>
+  <si>
+    <t>L. ARAGON</t>
+  </si>
+  <si>
+    <t>2 p. buriti</t>
+  </si>
+  <si>
+    <t>p. buri 2</t>
+  </si>
+  <si>
+    <t>3 c vespa</t>
+  </si>
+  <si>
+    <t>vespa 2</t>
+  </si>
+  <si>
+    <t>1 banana</t>
   </si>
 </sst>
 </file>
@@ -463,8 +478,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -479,11 +496,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -813,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -840,7 +859,7 @@
     <col min="21" max="21" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -872,37 +891,40 @@
         <v>43</v>
       </c>
       <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
       <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -934,37 +956,40 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>57</v>
       </c>
-      <c r="P2" t="s">
-        <v>101</v>
-      </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>66</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>70</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -996,37 +1021,40 @@
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>58</v>
       </c>
-      <c r="P3" t="s">
-        <v>97</v>
-      </c>
       <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>63</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>67</v>
       </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
       <c r="U3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1058,37 +1086,40 @@
         <v>47</v>
       </c>
       <c r="L4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" t="s">
         <v>78</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
-        <v>99</v>
-      </c>
       <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
         <v>59</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>68</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>71</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1102,13 +1133,13 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1118,79 +1149,85 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="H8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="H10" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="H10" t="s">
-        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="H11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="H12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="H13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="H14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="H15" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="H16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="8:16">
       <c r="H17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P17" t="s">
         <v>85</v>
@@ -1198,7 +1235,7 @@
     </row>
     <row r="18" spans="8:16">
       <c r="P18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="8:16">
@@ -1213,67 +1250,67 @@
     </row>
     <row r="21" spans="8:16">
       <c r="P21" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="8:16">
       <c r="P22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="8:16">
       <c r="P23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="8:16">
       <c r="P24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="8:16">
       <c r="P25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="8:16">
       <c r="P26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="8:16">
       <c r="P27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="8:16">
       <c r="P28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="8:16">
       <c r="P29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="8:16">
       <c r="P30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="8:16">
       <c r="P31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="8:16">
       <c r="P32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="16:16">
       <c r="P33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
